--- a/2020-05.xlsx
+++ b/2020-05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="16" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="2020-05-10" sheetId="1" r:id="rId4"/>
@@ -20,6 +20,10 @@
     <sheet name="2020-05-20 3" sheetId="11" r:id="rId14"/>
     <sheet name="2020-05-2020-05-11" sheetId="12" r:id="rId15"/>
     <sheet name="2020-05-20 4" sheetId="13" r:id="rId16"/>
+    <sheet name="2020-05-20 5" sheetId="14" r:id="rId17"/>
+    <sheet name="2020-05-2020-05-26" sheetId="15" r:id="rId18"/>
+    <sheet name="2020-05-28" sheetId="16" r:id="rId19"/>
+    <sheet name="2020-05-2020-05-29" sheetId="17" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>記入者</t>
   </si>
@@ -348,6 +352,24 @@
   </si>
   <si>
     <t>11円</t>
+  </si>
+  <si>
+    <t>2020-05-2020-05-26</t>
+  </si>
+  <si>
+    <t>4円</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>様</t>
+  </si>
+  <si>
+    <t>2020-05-2020-05-29</t>
   </si>
 </sst>
 </file>
@@ -3256,6 +3278,2458 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A35" sqref="A35:L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>500</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32"/>
+      <c r="K32"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:L39"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A35" sqref="A35:L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>500</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32"/>
+      <c r="K32"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:L39"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A35" sqref="A35:L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>500</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32"/>
+      <c r="K32"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:L39"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A35" sqref="A35:L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>300</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>300</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32"/>
+      <c r="K32"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:L39"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A35" sqref="A35:L39"/>
     </sheetView>
@@ -3267,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3275,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3343,13 +5817,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>99</v>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>99</v>
+      <c r="K6" s="2">
+        <v>1</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3366,13 +5840,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>100</v>
+      <c r="K7" s="2">
+        <v>1</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -3613,10 +6087,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:13">

--- a/2020-05.xlsx
+++ b/2020-05.xlsx
@@ -413,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border/>
     <border>
       <bottom style="thin">
@@ -559,11 +559,53 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -582,6 +624,9 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -597,6 +642,9 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -606,10 +654,34 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -963,7 +1035,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -986,10 +1058,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -1009,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -1030,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -1045,7 +1117,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -1060,7 +1132,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -1075,10 +1147,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -1098,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -1113,7 +1185,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -1128,7 +1200,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -1143,7 +1215,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -1158,7 +1230,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -1173,7 +1245,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -1188,7 +1260,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -1203,7 +1275,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -1218,22 +1290,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -1247,7 +1319,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -1264,12 +1336,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -1283,12 +1355,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -1302,12 +1374,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -1321,12 +1393,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -1340,103 +1412,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>6500</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>200</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>300</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>3</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>3000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>4</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -1445,32 +1519,32 @@
       <c r="L31" s="2">
         <v>2000</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
         <v>5</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>1000</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1860,7 +1934,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -1883,10 +1957,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -1906,7 +1980,7 @@
         <v>97</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -1921,7 +1995,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -1936,7 +2010,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -1951,7 +2025,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -1966,10 +2040,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -1989,7 +2063,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -2004,7 +2078,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -2019,7 +2093,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -2034,7 +2108,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -2049,7 +2123,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -2064,7 +2138,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -2079,7 +2153,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -2094,7 +2168,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -2109,22 +2183,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -2138,7 +2212,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -2155,12 +2229,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -2174,12 +2248,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -2193,12 +2267,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -2212,12 +2286,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -2231,103 +2305,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1700</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>-1</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2336,32 +2412,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2731,7 +2807,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -2754,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -2777,7 +2853,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -2792,7 +2868,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -2807,7 +2883,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -2822,7 +2898,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -2837,10 +2913,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -2860,7 +2936,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -2875,7 +2951,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -2890,7 +2966,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -2905,7 +2981,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -2920,7 +2996,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -2935,7 +3011,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -2950,7 +3026,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -2965,7 +3041,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -2980,22 +3056,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -3009,7 +3085,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -3026,12 +3102,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -3045,12 +3121,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -3064,12 +3140,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -3083,12 +3159,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -3102,103 +3178,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -3207,32 +3285,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3602,7 +3680,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -3625,10 +3703,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -3648,7 +3726,7 @@
         <v>97</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -3663,7 +3741,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -3678,7 +3756,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -3693,7 +3771,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -3708,10 +3786,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -3731,7 +3809,7 @@
         <v>105</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -3746,7 +3824,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -3761,7 +3839,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -3776,7 +3854,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -3791,7 +3869,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -3806,7 +3884,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -3821,7 +3899,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -3836,7 +3914,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -3851,22 +3929,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -3880,7 +3958,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -3897,12 +3975,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -3916,12 +3994,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -3935,12 +4013,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -3954,12 +4032,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -3973,103 +4051,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>11</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -4078,32 +4158,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4473,7 +4553,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -4496,10 +4576,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -4519,7 +4599,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -4534,7 +4614,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -4549,7 +4629,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -4564,7 +4644,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -4579,10 +4659,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -4602,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -4617,7 +4697,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -4632,7 +4712,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -4647,7 +4727,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -4662,7 +4742,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -4677,7 +4757,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -4692,7 +4772,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -4707,7 +4787,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -4722,22 +4802,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -4751,7 +4831,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -4768,12 +4848,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -4787,12 +4867,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -4806,12 +4886,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -4825,12 +4905,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -4844,103 +4924,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -4949,32 +5031,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5344,7 +5426,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -5367,10 +5449,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -5390,7 +5472,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -5405,7 +5487,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -5420,7 +5502,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -5435,7 +5517,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -5450,10 +5532,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -5473,7 +5555,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -5488,7 +5570,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -5503,7 +5585,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -5518,7 +5600,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -5533,7 +5615,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -5548,7 +5630,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -5563,7 +5645,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -5578,7 +5660,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -5593,22 +5675,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -5622,7 +5704,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -5639,12 +5721,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -5658,12 +5740,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -5677,12 +5759,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -5696,12 +5778,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -5715,103 +5797,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -5820,32 +5904,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6215,7 +6299,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -6238,10 +6322,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -6261,7 +6345,7 @@
         <v>97</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -6276,7 +6360,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -6291,7 +6375,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -6306,7 +6390,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -6321,10 +6405,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -6344,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -6359,7 +6443,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -6374,7 +6458,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -6389,7 +6473,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -6404,7 +6488,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -6419,7 +6503,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -6434,7 +6518,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -6449,7 +6533,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -6464,22 +6548,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -6493,7 +6577,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -6510,12 +6594,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -6529,12 +6613,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -6548,12 +6632,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -6567,12 +6651,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -6586,103 +6670,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -6691,32 +6777,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7086,7 +7172,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -7109,10 +7195,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
@@ -7126,7 +7212,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -7141,7 +7227,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -7156,7 +7242,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -7171,7 +7257,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -7186,10 +7272,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3"/>
@@ -7203,7 +7289,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -7218,7 +7304,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -7233,7 +7319,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -7248,7 +7334,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -7263,7 +7349,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -7278,7 +7364,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -7293,7 +7379,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -7308,7 +7394,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -7323,22 +7409,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -7350,7 +7436,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -7367,12 +7453,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -7386,12 +7472,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -7405,12 +7491,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -7424,12 +7510,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -7443,103 +7529,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>15</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>3</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>3</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -7548,32 +7636,32 @@
       <c r="L31" s="2">
         <v>3</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
         <v>3</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>3</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7943,7 +8031,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -7966,10 +8054,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -7989,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -8004,7 +8092,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -8019,7 +8107,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -8034,7 +8122,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -8049,10 +8137,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -8072,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -8087,7 +8175,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -8102,7 +8190,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -8117,7 +8205,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -8132,7 +8220,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -8147,7 +8235,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -8162,7 +8250,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -8177,7 +8265,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -8192,22 +8280,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -8221,7 +8309,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -8238,12 +8326,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -8257,12 +8345,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -8276,12 +8364,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -8295,12 +8383,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -8314,103 +8402,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -8419,32 +8509,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8814,7 +8904,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -8837,10 +8927,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -8860,7 +8950,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -8875,7 +8965,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -8890,7 +8980,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -8905,7 +8995,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -8920,10 +9010,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -8943,7 +9033,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -8958,7 +9048,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -8973,7 +9063,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -8988,7 +9078,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -9003,7 +9093,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -9018,7 +9108,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -9033,7 +9123,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -9048,7 +9138,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -9063,22 +9153,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -9092,7 +9182,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -9109,12 +9199,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -9128,12 +9218,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -9147,12 +9237,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -9166,12 +9256,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -9185,103 +9275,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -9290,32 +9382,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9685,7 +9777,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -9708,10 +9800,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -9731,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -9746,7 +9838,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -9761,7 +9853,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -9776,7 +9868,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -9791,10 +9883,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -9814,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -9829,7 +9921,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -9844,7 +9936,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -9859,7 +9951,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -9874,7 +9966,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -9889,7 +9981,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -9904,7 +9996,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -9919,7 +10011,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -9934,22 +10026,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -9963,7 +10055,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -9980,12 +10072,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -9999,12 +10091,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -10018,12 +10110,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -10037,12 +10129,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -10056,103 +10148,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -10161,32 +10255,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10576,7 +10670,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -10599,10 +10693,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -10622,7 +10716,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -10643,7 +10737,7 @@
         <v>70</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -10658,7 +10752,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -10673,7 +10767,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -10688,10 +10782,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -10711,7 +10805,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -10732,7 +10826,7 @@
         <v>73</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -10747,7 +10841,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -10762,7 +10856,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -10777,7 +10871,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -10792,7 +10886,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -10807,7 +10901,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -10822,7 +10916,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -10837,22 +10931,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -10866,7 +10960,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -10883,12 +10977,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -10902,12 +10996,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -10921,12 +11015,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -10940,12 +11034,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -10959,103 +11053,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -11064,32 +11160,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11479,7 +11575,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -11502,10 +11598,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -11525,7 +11621,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -11546,7 +11642,7 @@
         <v>78</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -11561,7 +11657,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -11576,7 +11672,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -11591,10 +11687,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -11614,7 +11710,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -11635,7 +11731,7 @@
         <v>73</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -11650,7 +11746,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -11665,7 +11761,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -11680,7 +11776,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -11695,7 +11791,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -11710,7 +11806,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -11725,7 +11821,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -11740,22 +11836,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -11769,7 +11865,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -11786,12 +11882,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -11805,12 +11901,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -11824,12 +11920,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -11843,12 +11939,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -11862,103 +11958,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -11967,32 +12065,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12382,7 +12480,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -12405,10 +12503,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -12428,7 +12526,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -12443,7 +12541,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -12458,7 +12556,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -12473,7 +12571,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -12488,10 +12586,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -12511,7 +12609,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -12526,7 +12624,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -12541,7 +12639,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -12556,7 +12654,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -12571,7 +12669,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -12586,7 +12684,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -12601,7 +12699,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -12616,7 +12714,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -12631,22 +12729,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -12660,7 +12758,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -12677,12 +12775,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -12696,12 +12794,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -12715,12 +12813,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -12734,12 +12832,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -12753,103 +12851,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -12858,32 +12958,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13253,7 +13353,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -13276,10 +13376,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -13299,7 +13399,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -13314,7 +13414,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -13329,7 +13429,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -13344,7 +13444,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -13359,10 +13459,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -13382,7 +13482,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -13397,7 +13497,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -13412,7 +13512,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -13427,7 +13527,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -13442,7 +13542,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -13457,7 +13557,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -13472,7 +13572,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -13487,7 +13587,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -13502,22 +13602,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -13531,7 +13631,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -13548,12 +13648,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -13567,12 +13667,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -13586,12 +13686,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -13605,12 +13705,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -13624,103 +13724,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -13729,32 +13831,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14124,7 +14226,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -14147,10 +14249,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -14170,7 +14272,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -14185,7 +14287,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -14200,7 +14302,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -14215,7 +14317,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -14230,10 +14332,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -14253,7 +14355,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -14268,7 +14370,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -14283,7 +14385,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -14298,7 +14400,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -14313,7 +14415,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -14328,7 +14430,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -14343,7 +14445,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -14358,7 +14460,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -14373,22 +14475,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -14402,7 +14504,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -14419,12 +14521,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -14438,12 +14540,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -14457,12 +14559,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -14476,12 +14578,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -14495,103 +14597,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -14600,32 +14704,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14995,7 +15099,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -15018,10 +15122,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -15041,7 +15145,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -15056,7 +15160,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -15071,7 +15175,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -15086,7 +15190,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -15101,10 +15205,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -15124,7 +15228,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -15145,7 +15249,7 @@
         <v>87</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -15160,7 +15264,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -15175,7 +15279,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -15190,7 +15294,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -15205,7 +15309,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -15220,7 +15324,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -15235,7 +15339,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -15250,22 +15354,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -15279,7 +15383,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -15296,12 +15400,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -15315,12 +15419,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -15334,12 +15438,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -15353,12 +15457,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -15372,103 +15476,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>9400</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>4000</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>800</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>2</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>2000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>4</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -15477,32 +15583,32 @@
       <c r="L31" s="2">
         <v>2000</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
         <v>3</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>600</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15892,7 +15998,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -15915,10 +16021,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -15938,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -15953,7 +16059,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -15968,7 +16074,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -15983,7 +16089,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -15998,10 +16104,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -16021,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -16036,7 +16142,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -16051,7 +16157,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -16066,7 +16172,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -16081,7 +16187,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -16096,7 +16202,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -16111,7 +16217,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -16126,7 +16232,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -16141,22 +16247,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -16170,7 +16276,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -16187,12 +16293,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -16206,12 +16312,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -16225,12 +16331,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -16244,12 +16350,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -16263,103 +16369,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -16368,32 +16476,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -16763,7 +16871,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
@@ -16786,10 +16894,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -16809,7 +16917,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5"/>
@@ -16824,7 +16932,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5"/>
@@ -16839,7 +16947,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5"/>
@@ -16854,7 +16962,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5"/>
@@ -16869,10 +16977,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -16892,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
@@ -16907,7 +17015,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5"/>
@@ -16922,7 +17030,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5"/>
@@ -16937,7 +17045,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5"/>
@@ -16952,7 +17060,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5"/>
@@ -16967,7 +17075,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
@@ -16982,7 +17090,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5"/>
@@ -16997,7 +17105,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5"/>
@@ -17012,22 +17120,22 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
@@ -17041,7 +17149,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K21"/>
@@ -17058,12 +17166,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
@@ -17077,12 +17185,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
@@ -17096,12 +17204,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -17115,12 +17223,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
@@ -17134,103 +17242,105 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -17239,32 +17349,32 @@
       <c r="L31" s="2">
         <v>500</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>200</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
